--- a/excel/format-kendaraan.xlsx
+++ b/excel/format-kendaraan.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7\htdocs\waranti_daihatsu\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\waranti\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{964A9B69-7377-41FD-A45F-F8901FCA01CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="-11640" windowWidth="15600" windowHeight="11160" xr2:uid="{B4FFC26F-7C13-4BB0-A604-7817FA17F2AE}"/>
+    <workbookView xWindow="2835" yWindow="-11640" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>NOMOR POLISI</t>
   </si>
@@ -51,12 +50,24 @@
   </si>
   <si>
     <t>KILOMETER</t>
+  </si>
+  <si>
+    <t>D6242zah</t>
+  </si>
+  <si>
+    <t>d1525</t>
+  </si>
+  <si>
+    <t>yahaasd</t>
+  </si>
+  <si>
+    <t>ahdaman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,11 +412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21DC71F-647B-474C-9D92-93925E29A287}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +449,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1920</v>
+      </c>
+      <c r="F2">
+        <v>12466</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
